--- a/report/Report-Pelaporan Manajemen-Laporan Produksi dan Pendapatan Tunda.xlsx
+++ b/report/Report-Pelaporan Manajemen-Laporan Produksi dan Pendapatan Tunda.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>LAPORAN PRODUKSI GERAKAN DAN PENDAPATAN PENUNDAAN KAPAL</t>
   </si>
@@ -79,12 +79,6 @@
   </si>
   <si>
     <t>Rp</t>
-  </si>
-  <si>
-    <t>ARJUNA II</t>
-  </si>
-  <si>
-    <t>BATAVIA II</t>
   </si>
   <si>
     <t>${table:global.gr_dl}</t>
@@ -121,9 +115,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0;"/>
-  </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -754,22 +745,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1139,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1161,108 +1143,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="10">
         <v>44256</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="14" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="7" t="s">
+      <c r="I6" s="5"/>
+      <c r="J6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="8"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="15"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1277,9 +1259,9 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1289,7 +1271,7 @@
       <c r="F8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="16"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="2" t="s">
         <v>19</v>
       </c>
@@ -1304,105 +1286,35 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3">
-        <v>1240</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>25</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1541</v>
-      </c>
-      <c r="H9" s="5">
-        <v>9063</v>
-      </c>
-      <c r="I9" s="5">
-        <v>11239650</v>
-      </c>
-      <c r="J9" s="5">
-        <v>453</v>
-      </c>
-      <c r="K9" s="5">
-        <v>561983</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>2</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3">
-        <v>3200</v>
-      </c>
-      <c r="D10" s="3">
-        <v>6</v>
-      </c>
-      <c r="E10" s="3">
-        <v>17</v>
-      </c>
-      <c r="F10" s="3">
-        <v>23</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1378</v>
-      </c>
-      <c r="H10" s="5">
-        <v>76735</v>
-      </c>
-      <c r="I10" s="5">
-        <v>245549435</v>
-      </c>
-      <c r="J10" s="5">
-        <v>3837</v>
-      </c>
-      <c r="K10" s="5">
-        <v>12277472</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="K9" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/report/Report-Pelaporan Manajemen-Laporan Produksi dan Pendapatan Tunda.xlsx
+++ b/report/Report-Pelaporan Manajemen-Laporan Produksi dan Pendapatan Tunda.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>LAPORAN PRODUKSI GERAKAN DAN PENDAPATAN PENUNDAAN KAPAL</t>
   </si>
@@ -33,9 +33,6 @@
     <t>:</t>
   </si>
   <si>
-    <t>TANJUNG PRIOK</t>
-  </si>
-  <si>
     <t>BULAN / TAHUN</t>
   </si>
   <si>
@@ -81,34 +78,43 @@
     <t>Rp</t>
   </si>
   <si>
-    <t>${table:global.gr_dl}</t>
-  </si>
-  <si>
-    <t>${table:global.gr_ln}</t>
-  </si>
-  <si>
-    <t>${table:global.gr_total}</t>
-  </si>
-  <si>
-    <t>${table:global.total_tunda}</t>
-  </si>
-  <si>
-    <t>${table:global.perhp}</t>
-  </si>
-  <si>
-    <t>${table:global.percent_perhp}</t>
-  </si>
-  <si>
-    <t>${table:global.percent_pertotal}</t>
-  </si>
-  <si>
-    <t>${table:global.nm_kapal}</t>
-  </si>
-  <si>
-    <t>${table:global.hp}</t>
-  </si>
-  <si>
-    <t>${table:global.total_perhp}</t>
+    <t>${cabang}</t>
+  </si>
+  <si>
+    <t>${date}</t>
+  </si>
+  <si>
+    <t>${table:global.NO}</t>
+  </si>
+  <si>
+    <t>${table:global.NM_KPL}</t>
+  </si>
+  <si>
+    <t>${table:global.HP_KPL}</t>
+  </si>
+  <si>
+    <t>${table:global.GERAKAN_DN}</t>
+  </si>
+  <si>
+    <t>${table:global.GERAKAN_LN}</t>
+  </si>
+  <si>
+    <t>${table:global.TOTAL_GERAKAN}</t>
+  </si>
+  <si>
+    <t>${table:global.LAMA_TUNDA_KPL}</t>
+  </si>
+  <si>
+    <t>${table:global.PENDAPATAN_PER_HP}</t>
+  </si>
+  <si>
+    <t>${table:global.PENDAPATAN_TOTAL_KPL}</t>
+  </si>
+  <si>
+    <t>${table:global.PNBP_PER_HP}</t>
+  </si>
+  <si>
+    <t>${table:global.PNBP_TOTAL_KPL}</t>
   </si>
 </sst>
 </file>
@@ -745,7 +751,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -753,6 +759,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1124,7 +1131,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1143,178 +1150,181 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="E4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="A5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="10">
-        <v>44256</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="E5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="11" t="s">
+      <c r="H6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="6"/>
+      <c r="J6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="5"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="12"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="I8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/report/Report-Pelaporan Manajemen-Laporan Produksi dan Pendapatan Tunda.xlsx
+++ b/report/Report-Pelaporan Manajemen-Laporan Produksi dan Pendapatan Tunda.xlsx
@@ -1131,7 +1131,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1143,10 +1143,10 @@
     <col min="5" max="5" width="7.7265625" customWidth="1"/>
     <col min="6" max="6" width="4.26953125" customWidth="1"/>
     <col min="7" max="7" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1"/>
-    <col min="9" max="9" width="6.08984375" customWidth="1"/>
-    <col min="10" max="10" width="7.1796875" customWidth="1"/>
-    <col min="11" max="11" width="6.81640625" customWidth="1"/>
+    <col min="8" max="8" width="7.90625" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="9.36328125" customWidth="1"/>
+    <col min="11" max="11" width="9.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">

--- a/report/Report-Pelaporan Manajemen-Laporan Produksi dan Pendapatan Tunda.xlsx
+++ b/report/Report-Pelaporan Manajemen-Laporan Produksi dan Pendapatan Tunda.xlsx
@@ -609,19 +609,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -703,6 +690,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,7 +753,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -759,12 +761,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -804,9 +807,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1131,7 +1132,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1150,108 +1151,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
     </row>
     <row r="4" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="12" t="s">
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="5" t="s">
+      <c r="I6" s="5"/>
+      <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="6"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="13"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1266,64 +1267,64 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="2" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="2" t="s">
+      <c r="G8" s="12"/>
+      <c r="H8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="19" t="s">
         <v>31</v>
       </c>
     </row>

--- a/report/Report-Pelaporan Manajemen-Laporan Produksi dan Pendapatan Tunda.xlsx
+++ b/report/Report-Pelaporan Manajemen-Laporan Produksi dan Pendapatan Tunda.xlsx
@@ -807,7 +807,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1132,7 +1132,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G6" sqref="G6:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/report/Report-Pelaporan Manajemen-Laporan Produksi dan Pendapatan Tunda.xlsx
+++ b/report/Report-Pelaporan Manajemen-Laporan Produksi dan Pendapatan Tunda.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\ilcs\simpanda\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\simpanda_oracle\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056"/>
   </bookViews>
   <sheets>
     <sheet name="Report-Pelaporan Manajemen-Lapo" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +268,20 @@
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -753,7 +767,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -764,14 +778,12 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -807,7 +819,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1131,41 +1146,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.36328125" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.81640625" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" customWidth="1"/>
-    <col min="6" max="6" width="4.26953125" customWidth="1"/>
-    <col min="7" max="7" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.90625" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.77734375" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" customWidth="1"/>
+    <col min="6" max="6" width="4.21875" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="9.36328125" customWidth="1"/>
-    <col min="11" max="11" width="9.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1180,7 +1195,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="4" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
@@ -1199,7 +1214,7 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -1218,7 +1233,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
@@ -1236,16 +1251,16 @@
       <c r="G6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="4" t="s">
+      <c r="I6" s="6"/>
+      <c r="J6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="5"/>
+      <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1266,7 +1281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -1293,38 +1308,38 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="4" t="s">
         <v>31</v>
       </c>
     </row>

--- a/report/Report-Pelaporan Manajemen-Laporan Produksi dan Pendapatan Tunda.xlsx
+++ b/report/Report-Pelaporan Manajemen-Laporan Produksi dan Pendapatan Tunda.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\simpanda_oracle\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\ilcs\simpanda\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7060"/>
   </bookViews>
   <sheets>
     <sheet name="Report-Pelaporan Manajemen-Lapo" sheetId="1" r:id="rId1"/>
@@ -84,37 +84,37 @@
     <t>${date}</t>
   </si>
   <si>
-    <t>${table:global.NO}</t>
-  </si>
-  <si>
-    <t>${table:global.NM_KPL}</t>
-  </si>
-  <si>
-    <t>${table:global.HP_KPL}</t>
-  </si>
-  <si>
-    <t>${table:global.GERAKAN_DN}</t>
-  </si>
-  <si>
-    <t>${table:global.GERAKAN_LN}</t>
-  </si>
-  <si>
-    <t>${table:global.TOTAL_GERAKAN}</t>
-  </si>
-  <si>
-    <t>${table:global.LAMA_TUNDA_KPL}</t>
-  </si>
-  <si>
-    <t>${table:global.PENDAPATAN_PER_HP}</t>
-  </si>
-  <si>
-    <t>${table:global.PENDAPATAN_TOTAL_KPL}</t>
-  </si>
-  <si>
-    <t>${table:global.PNBP_PER_HP}</t>
-  </si>
-  <si>
-    <t>${table:global.PNBP_TOTAL_KPL}</t>
+    <t>${table:global.no}</t>
+  </si>
+  <si>
+    <t>${table:global.nmKpl}</t>
+  </si>
+  <si>
+    <t>${table:global.hpKpl}</t>
+  </si>
+  <si>
+    <t>${table:global.gerakanDn}</t>
+  </si>
+  <si>
+    <t>${table:global.gerakanLn}</t>
+  </si>
+  <si>
+    <t>${table:global.totalGerakan}</t>
+  </si>
+  <si>
+    <t>${table:global.lamaTundaKpl}</t>
+  </si>
+  <si>
+    <t>${table:global.pendapatanPerHp}</t>
+  </si>
+  <si>
+    <t>${table:global.pendapatanTotalKpl}</t>
+  </si>
+  <si>
+    <t>${table:global.pnbpPerHp}</t>
+  </si>
+  <si>
+    <t>${table:global.pnbpTotalKpl}</t>
   </si>
 </sst>
 </file>
@@ -785,11 +785,15 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -819,10 +823,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1147,108 +1147,108 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.77734375" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" customWidth="1"/>
-    <col min="6" max="6" width="4.21875" customWidth="1"/>
-    <col min="7" max="7" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" customWidth="1"/>
+    <col min="1" max="1" width="2.36328125" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.81640625" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" customWidth="1"/>
+    <col min="5" max="5" width="7.81640625" customWidth="1"/>
+    <col min="6" max="6" width="4.1796875" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.90625" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.36328125" customWidth="1"/>
+    <col min="11" max="11" width="9.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
-    <row r="4" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="11" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="5" t="s">
@@ -1260,14 +1260,14 @@
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="12"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1281,10 +1281,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1294,7 +1294,7 @@
       <c r="F8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="12"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
